--- a/iphrpreferencetablejanuary2024accessible1.xlsx
+++ b/iphrpreferencetablejanuary2024accessible1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697F5FDF-3EA0-6B44-A3A9-A80745EF6336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC853F7-1E2B-BF41-9BC8-EE5D267D7CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1101,10 +1101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4C0E5D-EDE0-8F4D-AE23-56544BD6A5CD}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CZ20" sqref="CZ20"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1112,7 +1112,7 @@
     <col min="1" max="1" width="15.1640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17">
+    <row r="1" spans="1:17" ht="17">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1143,9 +1143,29 @@
       <c r="J1" s="1">
         <v>2023</v>
       </c>
-      <c r="K1" s="1"/>
+      <c r="K1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2030</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" ht="17">
+    <row r="2" spans="1:17" ht="17">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1176,8 +1196,29 @@
       <c r="J2" s="1">
         <v>114.86568338363078</v>
       </c>
+      <c r="K2" s="1">
+        <v>120.42925111169146</v>
+      </c>
+      <c r="L2" s="1">
+        <v>126.00007946238455</v>
+      </c>
+      <c r="M2" s="1">
+        <v>131.57090781307767</v>
+      </c>
+      <c r="N2" s="1">
+        <v>137.14173616377076</v>
+      </c>
+      <c r="O2" s="1">
+        <v>142.71256451446385</v>
+      </c>
+      <c r="P2" s="1">
+        <v>148.28339286515697</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>153.85422121585006</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" ht="17">
+    <row r="3" spans="1:17" ht="17">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1208,8 +1249,29 @@
       <c r="J3" s="1">
         <v>113.63171152686958</v>
       </c>
+      <c r="K3" s="1">
+        <v>115.00912689890906</v>
+      </c>
+      <c r="L3" s="1">
+        <v>116.38654227094854</v>
+      </c>
+      <c r="M3" s="1">
+        <v>117.76395764298802</v>
+      </c>
+      <c r="N3" s="1">
+        <v>119.14137301502751</v>
+      </c>
+      <c r="O3" s="1">
+        <v>120.51878838706699</v>
+      </c>
+      <c r="P3" s="1">
+        <v>121.89620375910647</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>123.27361913114595</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" ht="34">
+    <row r="4" spans="1:17" ht="34">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1240,8 +1302,29 @@
       <c r="J4" s="1">
         <v>136.88847704638522</v>
       </c>
+      <c r="K4" s="1">
+        <v>148.00403690656057</v>
+      </c>
+      <c r="L4" s="1">
+        <v>159.12398139178629</v>
+      </c>
+      <c r="M4" s="1">
+        <v>170.24392587701197</v>
+      </c>
+      <c r="N4" s="1">
+        <v>181.36387036223772</v>
+      </c>
+      <c r="O4" s="1">
+        <v>192.48381484746341</v>
+      </c>
+      <c r="P4" s="1">
+        <v>203.60375933268912</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>214.72370381791484</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" ht="17">
+    <row r="5" spans="1:17" ht="17">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1272,8 +1355,29 @@
       <c r="J5" s="1">
         <v>112.54379684382252</v>
       </c>
+      <c r="K5" s="1">
+        <v>113.82572493018385</v>
+      </c>
+      <c r="L5" s="1">
+        <v>115.10765301654519</v>
+      </c>
+      <c r="M5" s="1">
+        <v>116.3895811029065</v>
+      </c>
+      <c r="N5" s="1">
+        <v>117.67150918926784</v>
+      </c>
+      <c r="O5" s="1">
+        <v>118.95343727562917</v>
+      </c>
+      <c r="P5" s="1">
+        <v>120.2353653619905</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>121.51729344835184</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" ht="17">
+    <row r="6" spans="1:17" ht="17">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1304,8 +1408,29 @@
       <c r="J6" s="1">
         <v>118.43545767123675</v>
       </c>
+      <c r="K6" s="1">
+        <v>123.71384365124601</v>
+      </c>
+      <c r="L6" s="1">
+        <v>128.99503010190912</v>
+      </c>
+      <c r="M6" s="1">
+        <v>134.27621655257224</v>
+      </c>
+      <c r="N6" s="1">
+        <v>139.55740300323535</v>
+      </c>
+      <c r="O6" s="1">
+        <v>144.83858945389846</v>
+      </c>
+      <c r="P6" s="1">
+        <v>150.11977590456155</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>155.40096235522466</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" ht="34">
+    <row r="7" spans="1:17" ht="34">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1336,8 +1461,29 @@
       <c r="J7" s="1">
         <v>120.49383824647788</v>
       </c>
+      <c r="K7" s="1">
+        <v>126.05287651865068</v>
+      </c>
+      <c r="L7" s="1">
+        <v>131.61610565360468</v>
+      </c>
+      <c r="M7" s="1">
+        <v>137.17933478855869</v>
+      </c>
+      <c r="N7" s="1">
+        <v>142.74256392351268</v>
+      </c>
+      <c r="O7" s="1">
+        <v>148.30579305846669</v>
+      </c>
+      <c r="P7" s="1">
+        <v>153.86902219342068</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>159.43225132837469</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" ht="17">
+    <row r="8" spans="1:17" ht="17">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1368,8 +1514,29 @@
       <c r="J8" s="1">
         <v>128.01623071798392</v>
       </c>
+      <c r="K8" s="1">
+        <v>133.87893370202536</v>
+      </c>
+      <c r="L8" s="1">
+        <v>139.74388890110058</v>
+      </c>
+      <c r="M8" s="1">
+        <v>145.60884410017582</v>
+      </c>
+      <c r="N8" s="1">
+        <v>151.47379929925103</v>
+      </c>
+      <c r="O8" s="1">
+        <v>157.33875449832624</v>
+      </c>
+      <c r="P8" s="1">
+        <v>163.20370969740145</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>169.06866489647666</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" ht="17">
+    <row r="9" spans="1:17" ht="17">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1400,8 +1567,29 @@
       <c r="J9" s="1">
         <v>122.40236734126906</v>
       </c>
+      <c r="K9" s="1">
+        <v>127.94112848405723</v>
+      </c>
+      <c r="L9" s="1">
+        <v>133.48399154073326</v>
+      </c>
+      <c r="M9" s="1">
+        <v>139.02685459740928</v>
+      </c>
+      <c r="N9" s="1">
+        <v>144.56971765408531</v>
+      </c>
+      <c r="O9" s="1">
+        <v>150.11258071076134</v>
+      </c>
+      <c r="P9" s="1">
+        <v>155.65544376743736</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>161.19830682411342</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" ht="17">
+    <row r="10" spans="1:17" ht="17">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1432,8 +1620,29 @@
       <c r="J10" s="1">
         <v>124.09719320984949</v>
       </c>
+      <c r="K10" s="1">
+        <v>129.48826080764471</v>
+      </c>
+      <c r="L10" s="1">
+        <v>134.88199439210439</v>
+      </c>
+      <c r="M10" s="1">
+        <v>140.2757279765641</v>
+      </c>
+      <c r="N10" s="1">
+        <v>145.66946156102381</v>
+      </c>
+      <c r="O10" s="1">
+        <v>151.06319514548349</v>
+      </c>
+      <c r="P10" s="1">
+        <v>156.4569287299432</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>161.85066231440288</v>
+      </c>
     </row>
-    <row r="11" spans="1:11" ht="17">
+    <row r="11" spans="1:17" ht="17">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1464,8 +1673,29 @@
       <c r="J11" s="1">
         <v>116.22622108587164</v>
       </c>
+      <c r="K11" s="1">
+        <v>113.8421667935386</v>
+      </c>
+      <c r="L11" s="1">
+        <v>115.17541367298007</v>
+      </c>
+      <c r="M11" s="1">
+        <v>116.50866055242156</v>
+      </c>
+      <c r="N11" s="1">
+        <v>117.84190743186304</v>
+      </c>
+      <c r="O11" s="1">
+        <v>119.17515431130451</v>
+      </c>
+      <c r="P11" s="1">
+        <v>120.50840119074599</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>121.84164807018746</v>
+      </c>
     </row>
-    <row r="12" spans="1:11" ht="17">
+    <row r="12" spans="1:17" ht="17">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1496,8 +1726,29 @@
       <c r="J12" s="1">
         <v>122.54751227379758</v>
       </c>
+      <c r="K12" s="1">
+        <v>127.78012264110134</v>
+      </c>
+      <c r="L12" s="1">
+        <v>133.01674928924311</v>
+      </c>
+      <c r="M12" s="1">
+        <v>138.25337593738487</v>
+      </c>
+      <c r="N12" s="1">
+        <v>143.49000258552664</v>
+      </c>
+      <c r="O12" s="1">
+        <v>148.7266292336684</v>
+      </c>
+      <c r="P12" s="1">
+        <v>153.96325588181017</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>159.19988252995194</v>
+      </c>
     </row>
-    <row r="13" spans="1:11" ht="17">
+    <row r="13" spans="1:17" ht="17">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1527,6 +1778,27 @@
       </c>
       <c r="J13" s="1">
         <v>124.9395084579881</v>
+      </c>
+      <c r="K13" s="1">
+        <v>130.43492370308411</v>
+      </c>
+      <c r="L13" s="1">
+        <v>135.93276476077872</v>
+      </c>
+      <c r="M13" s="1">
+        <v>141.43060581847334</v>
+      </c>
+      <c r="N13" s="1">
+        <v>146.92844687616795</v>
+      </c>
+      <c r="O13" s="1">
+        <v>152.42628793386257</v>
+      </c>
+      <c r="P13" s="1">
+        <v>157.92412899155715</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>163.4219700492518</v>
       </c>
     </row>
   </sheetData>
@@ -1544,22 +1816,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e572c8d-6813-4013-8a4a-be491ac59459">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="96a98433-1569-4222-be80-afd48d89a184" xsi:nil="true"/>
-    <SectionName xmlns="1e572c8d-6813-4013-8a4a-be491ac59459">Change Log</SectionName>
-    <Comments xmlns="1e572c8d-6813-4013-8a4a-be491ac59459" xsi:nil="true"/>
-    <ReferenceId xmlns="1e572c8d-6813-4013-8a4a-be491ac59459">11908</ReferenceId>
-    <Notes xmlns="1e572c8d-6813-4013-8a4a-be491ac59459" xsi:nil="true"/>
-    <TrackerId xmlns="1e572c8d-6813-4013-8a4a-be491ac59459">TRCK-2070</TrackerId>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100366FE8C85E70484CA6E47CDF031DEDC1" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="254947c7f286aece19130e08c76ac8ac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e572c8d-6813-4013-8a4a-be491ac59459" xmlns:ns3="96a98433-1569-4222-be80-afd48d89a184" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f68632294b7bb301b77003dbbcbdfd64" ns2:_="" ns3:_="">
     <xsd:import namespace="1e572c8d-6813-4013-8a4a-be491ac59459"/>
@@ -1822,6 +2078,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e572c8d-6813-4013-8a4a-be491ac59459">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="96a98433-1569-4222-be80-afd48d89a184" xsi:nil="true"/>
+    <SectionName xmlns="1e572c8d-6813-4013-8a4a-be491ac59459">Change Log</SectionName>
+    <Comments xmlns="1e572c8d-6813-4013-8a4a-be491ac59459" xsi:nil="true"/>
+    <ReferenceId xmlns="1e572c8d-6813-4013-8a4a-be491ac59459">11908</ReferenceId>
+    <Notes xmlns="1e572c8d-6813-4013-8a4a-be491ac59459" xsi:nil="true"/>
+    <TrackerId xmlns="1e572c8d-6813-4013-8a4a-be491ac59459">TRCK-2070</TrackerId>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBFE7F81-9FEA-4788-9B23-D01FF480F723}">
   <ds:schemaRefs>
@@ -1831,17 +2103,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33B66837-A840-4D0D-8B13-C7D5C497F0FD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1e572c8d-6813-4013-8a4a-be491ac59459"/>
-    <ds:schemaRef ds:uri="96a98433-1569-4222-be80-afd48d89a184"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7284B8C2-C638-4DCB-82A1-9515FC193DF8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1858,4 +2119,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33B66837-A840-4D0D-8B13-C7D5C497F0FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1e572c8d-6813-4013-8a4a-be491ac59459"/>
+    <ds:schemaRef ds:uri="96a98433-1569-4222-be80-afd48d89a184"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>